--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fbn1-Itgb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fbn1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,6 +88,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.05250035309967</v>
+        <v>12.337869</v>
       </c>
       <c r="H2">
-        <v>5.05250035309967</v>
+        <v>37.013607</v>
       </c>
       <c r="I2">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="J2">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N2">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q2">
-        <v>368.9784590121562</v>
+        <v>1169.628142857519</v>
       </c>
       <c r="R2">
-        <v>368.9784590121562</v>
+        <v>10526.65328571767</v>
       </c>
       <c r="S2">
-        <v>0.001858775814247722</v>
+        <v>0.005286290853448568</v>
       </c>
       <c r="T2">
-        <v>0.001858775814247722</v>
+        <v>0.005286290853448569</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.05250035309967</v>
+        <v>12.337869</v>
       </c>
       <c r="H3">
-        <v>5.05250035309967</v>
+        <v>37.013607</v>
       </c>
       <c r="I3">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="J3">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N3">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q3">
-        <v>732.0550932222277</v>
+        <v>1796.904053562824</v>
       </c>
       <c r="R3">
-        <v>732.0550932222277</v>
+        <v>16172.13648206542</v>
       </c>
       <c r="S3">
-        <v>0.003687820437055673</v>
+        <v>0.008121348242926939</v>
       </c>
       <c r="T3">
-        <v>0.003687820437055673</v>
+        <v>0.008121348242926941</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.05250035309967</v>
+        <v>12.337869</v>
       </c>
       <c r="H4">
-        <v>5.05250035309967</v>
+        <v>37.013607</v>
       </c>
       <c r="I4">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="J4">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N4">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q4">
-        <v>343.6698561397649</v>
+        <v>897.900392433176</v>
       </c>
       <c r="R4">
-        <v>343.6698561397649</v>
+        <v>8081.103531898584</v>
       </c>
       <c r="S4">
-        <v>0.001731280515368902</v>
+        <v>0.004058180936234185</v>
       </c>
       <c r="T4">
-        <v>0.001731280515368902</v>
+        <v>0.004058180936234185</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.05250035309967</v>
+        <v>12.337869</v>
       </c>
       <c r="H5">
-        <v>5.05250035309967</v>
+        <v>37.013607</v>
       </c>
       <c r="I5">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="J5">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N5">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q5">
-        <v>385.7404908100804</v>
+        <v>942.44173634713</v>
       </c>
       <c r="R5">
-        <v>385.7404908100804</v>
+        <v>8481.975627124171</v>
       </c>
       <c r="S5">
-        <v>0.001943216676695485</v>
+        <v>0.004259491498373527</v>
       </c>
       <c r="T5">
-        <v>0.001943216676695485</v>
+        <v>0.004259491498373528</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.05250035309967</v>
+        <v>12.337869</v>
       </c>
       <c r="H6">
-        <v>5.05250035309967</v>
+        <v>37.013607</v>
       </c>
       <c r="I6">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="J6">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N6">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O6">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P6">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q6">
-        <v>288.0517272021714</v>
+        <v>717.9021769859339</v>
       </c>
       <c r="R6">
-        <v>288.0517272021714</v>
+        <v>6461.119592873406</v>
       </c>
       <c r="S6">
-        <v>0.001451097132361429</v>
+        <v>0.003244654923059473</v>
       </c>
       <c r="T6">
-        <v>0.001451097132361429</v>
+        <v>0.003244654923059473</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.05250035309967</v>
+        <v>12.337869</v>
       </c>
       <c r="H7">
-        <v>5.05250035309967</v>
+        <v>37.013607</v>
       </c>
       <c r="I7">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="J7">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N7">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q7">
-        <v>544.3973251237976</v>
+        <v>1429.168056881525</v>
       </c>
       <c r="R7">
-        <v>544.3973251237976</v>
+        <v>12862.51251193372</v>
       </c>
       <c r="S7">
-        <v>0.002742470614654313</v>
+        <v>0.006459316213678006</v>
       </c>
       <c r="T7">
-        <v>0.002742470614654313</v>
+        <v>0.006459316213678006</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>349.132382647277</v>
+        <v>353.819936</v>
       </c>
       <c r="H8">
-        <v>349.132382647277</v>
+        <v>1061.459808</v>
       </c>
       <c r="I8">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466954</v>
       </c>
       <c r="J8">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466953</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N8">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q8">
-        <v>25496.74805295228</v>
+        <v>33542.07721362954</v>
       </c>
       <c r="R8">
-        <v>25496.74805295228</v>
+        <v>301878.6949226659</v>
       </c>
       <c r="S8">
-        <v>0.1284431041033592</v>
+        <v>0.1515979049092317</v>
       </c>
       <c r="T8">
-        <v>0.1284431041033592</v>
+        <v>0.1515979049092318</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>349.132382647277</v>
+        <v>353.819936</v>
       </c>
       <c r="H9">
-        <v>349.132382647277</v>
+        <v>1061.459808</v>
       </c>
       <c r="I9">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466954</v>
       </c>
       <c r="J9">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466953</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N9">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q9">
-        <v>50585.6746291867</v>
+        <v>51530.81761767279</v>
       </c>
       <c r="R9">
-        <v>50585.6746291867</v>
+        <v>463777.3585590551</v>
       </c>
       <c r="S9">
-        <v>0.2548317557612194</v>
+        <v>0.2329004235290651</v>
       </c>
       <c r="T9">
-        <v>0.2548317557612194</v>
+        <v>0.2329004235290651</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>349.132382647277</v>
+        <v>353.819936</v>
       </c>
       <c r="H10">
-        <v>349.132382647277</v>
+        <v>1061.459808</v>
       </c>
       <c r="I10">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466954</v>
       </c>
       <c r="J10">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466953</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N10">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q10">
-        <v>23747.90051118203</v>
+        <v>25749.58928361788</v>
       </c>
       <c r="R10">
-        <v>23747.90051118203</v>
+        <v>231746.3035525609</v>
       </c>
       <c r="S10">
-        <v>0.1196330626658398</v>
+        <v>0.1163787133041208</v>
       </c>
       <c r="T10">
-        <v>0.1196330626658398</v>
+        <v>0.1163787133041208</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>349.132382647277</v>
+        <v>353.819936</v>
       </c>
       <c r="H11">
-        <v>349.132382647277</v>
+        <v>1061.459808</v>
       </c>
       <c r="I11">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466954</v>
       </c>
       <c r="J11">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466953</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N11">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q11">
-        <v>26655.01973838194</v>
+        <v>27026.92619268939</v>
       </c>
       <c r="R11">
-        <v>26655.01973838194</v>
+        <v>243242.3357342045</v>
       </c>
       <c r="S11">
-        <v>0.1342780447147125</v>
+        <v>0.1221518083347348</v>
       </c>
       <c r="T11">
-        <v>0.1342780447147125</v>
+        <v>0.1221518083347348</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>349.132382647277</v>
+        <v>353.819936</v>
       </c>
       <c r="H12">
-        <v>349.132382647277</v>
+        <v>1061.459808</v>
       </c>
       <c r="I12">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466954</v>
       </c>
       <c r="J12">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466953</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N12">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O12">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P12">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q12">
-        <v>19904.63707381233</v>
+        <v>20587.6802805593</v>
       </c>
       <c r="R12">
-        <v>19904.63707381233</v>
+        <v>185289.1225250337</v>
       </c>
       <c r="S12">
-        <v>0.1002721353523838</v>
+        <v>0.09304877505337331</v>
       </c>
       <c r="T12">
-        <v>0.1002721353523838</v>
+        <v>0.09304877505337331</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>349.132382647277</v>
+        <v>353.819936</v>
       </c>
       <c r="H13">
-        <v>349.132382647277</v>
+        <v>1061.459808</v>
       </c>
       <c r="I13">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466954</v>
       </c>
       <c r="J13">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466953</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N13">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q13">
-        <v>37618.35169604121</v>
+        <v>40985.04777600293</v>
       </c>
       <c r="R13">
-        <v>37618.35169604121</v>
+        <v>368865.4299840264</v>
       </c>
       <c r="S13">
-        <v>0.189507220805436</v>
+        <v>0.1852374060161698</v>
       </c>
       <c r="T13">
-        <v>0.189507220805436</v>
+        <v>0.1852374060161698</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.145274406943609</v>
+        <v>0.2119633333333334</v>
       </c>
       <c r="H14">
-        <v>0.145274406943609</v>
+        <v>0.6358900000000001</v>
       </c>
       <c r="I14">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="J14">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N14">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q14">
-        <v>10.60922772129499</v>
+        <v>20.09409241746334</v>
       </c>
       <c r="R14">
-        <v>10.60922772129499</v>
+        <v>180.84683175717</v>
       </c>
       <c r="S14">
-        <v>5.344533106074876E-05</v>
+        <v>9.081793867858948E-05</v>
       </c>
       <c r="T14">
-        <v>5.344533106074876E-05</v>
+        <v>9.08179386785895E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.145274406943609</v>
+        <v>0.2119633333333334</v>
       </c>
       <c r="H15">
-        <v>0.145274406943609</v>
+        <v>0.6358900000000001</v>
       </c>
       <c r="I15">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="J15">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N15">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q15">
-        <v>21.04876043257737</v>
+        <v>30.87062870203556</v>
       </c>
       <c r="R15">
-        <v>21.04876043257737</v>
+        <v>277.83565831832</v>
       </c>
       <c r="S15">
-        <v>0.0001060358019726031</v>
+        <v>0.0001395239359999368</v>
       </c>
       <c r="T15">
-        <v>0.0001060358019726031</v>
+        <v>0.0001395239359999368</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.145274406943609</v>
+        <v>0.2119633333333334</v>
       </c>
       <c r="H16">
-        <v>0.145274406943609</v>
+        <v>0.6358900000000001</v>
       </c>
       <c r="I16">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="J16">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N16">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q16">
-        <v>9.881530142688716</v>
+        <v>15.42583732907556</v>
       </c>
       <c r="R16">
-        <v>9.881530142688716</v>
+        <v>138.83253596168</v>
       </c>
       <c r="S16">
-        <v>4.977946215658217E-05</v>
+        <v>6.971913533155406E-05</v>
       </c>
       <c r="T16">
-        <v>4.977946215658217E-05</v>
+        <v>6.971913533155406E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.145274406943609</v>
+        <v>0.2119633333333334</v>
       </c>
       <c r="H17">
-        <v>0.145274406943609</v>
+        <v>0.6358900000000001</v>
       </c>
       <c r="I17">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="J17">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N17">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q17">
-        <v>11.09118597135616</v>
+        <v>16.19105308287778</v>
       </c>
       <c r="R17">
-        <v>11.09118597135616</v>
+        <v>145.7194777459</v>
       </c>
       <c r="S17">
-        <v>5.587325691064599E-05</v>
+        <v>7.317763029419809E-05</v>
       </c>
       <c r="T17">
-        <v>5.587325691064599E-05</v>
+        <v>7.317763029419811E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.145274406943609</v>
+        <v>0.2119633333333334</v>
       </c>
       <c r="H18">
-        <v>0.145274406943609</v>
+        <v>0.6358900000000001</v>
       </c>
       <c r="I18">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="J18">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N18">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O18">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P18">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q18">
-        <v>8.282343575236995</v>
+        <v>12.33348631284667</v>
       </c>
       <c r="R18">
-        <v>8.282343575236995</v>
+        <v>111.00137681562</v>
       </c>
       <c r="S18">
-        <v>4.172335687063331E-05</v>
+        <v>5.574284124820065E-05</v>
       </c>
       <c r="T18">
-        <v>4.172335687063331E-05</v>
+        <v>5.574284124820066E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.145274406943609</v>
+        <v>0.2119633333333334</v>
       </c>
       <c r="H19">
-        <v>0.145274406943609</v>
+        <v>0.6358900000000001</v>
       </c>
       <c r="I19">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="J19">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N19">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q19">
-        <v>15.65304166689024</v>
+        <v>24.55296171730556</v>
       </c>
       <c r="R19">
-        <v>15.65304166689024</v>
+        <v>220.97665545575</v>
       </c>
       <c r="S19">
-        <v>7.88541839209884E-05</v>
+        <v>0.0001109703949446404</v>
       </c>
       <c r="T19">
-        <v>7.88541839209884E-05</v>
+        <v>0.0001109703949446404</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.378025344978329</v>
+        <v>0.384321</v>
       </c>
       <c r="H20">
-        <v>0.378025344978329</v>
+        <v>1.152963</v>
       </c>
       <c r="I20">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="J20">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N20">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q20">
-        <v>27.60676882923337</v>
+        <v>36.433573536171</v>
       </c>
       <c r="R20">
-        <v>27.60676882923337</v>
+        <v>327.902161825539</v>
       </c>
       <c r="S20">
-        <v>0.0001390726015461415</v>
+        <v>0.0001646664093360212</v>
       </c>
       <c r="T20">
-        <v>0.0001390726015461415</v>
+        <v>0.0001646664093360213</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.378025344978329</v>
+        <v>0.384321</v>
       </c>
       <c r="H21">
-        <v>0.378025344978329</v>
+        <v>1.152963</v>
       </c>
       <c r="I21">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="J21">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N21">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q21">
-        <v>54.77196631737005</v>
+        <v>55.97303414141599</v>
       </c>
       <c r="R21">
-        <v>54.77196631737005</v>
+        <v>503.757307272744</v>
       </c>
       <c r="S21">
-        <v>0.000275920731421788</v>
+        <v>0.0002529776153458855</v>
       </c>
       <c r="T21">
-        <v>0.000275920731421788</v>
+        <v>0.0002529776153458855</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.378025344978329</v>
+        <v>0.384321</v>
       </c>
       <c r="H22">
-        <v>0.378025344978329</v>
+        <v>1.152963</v>
       </c>
       <c r="I22">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="J22">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N22">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q22">
-        <v>25.71319284444679</v>
+        <v>27.969333822584</v>
       </c>
       <c r="R22">
-        <v>25.71319284444679</v>
+        <v>251.724004403256</v>
       </c>
       <c r="S22">
-        <v>0.000129533472209473</v>
+        <v>0.0001264111456844337</v>
       </c>
       <c r="T22">
-        <v>0.000129533472209473</v>
+        <v>0.0001264111456844337</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.378025344978329</v>
+        <v>0.384321</v>
       </c>
       <c r="H23">
-        <v>0.378025344978329</v>
+        <v>1.152963</v>
       </c>
       <c r="I23">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="J23">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N23">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q23">
-        <v>28.86089498660428</v>
+        <v>29.35678361917</v>
       </c>
       <c r="R23">
-        <v>28.86089498660428</v>
+        <v>264.21105257253</v>
       </c>
       <c r="S23">
-        <v>0.0001453904212247685</v>
+        <v>0.0001326819106400313</v>
       </c>
       <c r="T23">
-        <v>0.0001453904212247685</v>
+        <v>0.0001326819106400313</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.378025344978329</v>
+        <v>0.384321</v>
       </c>
       <c r="H24">
-        <v>0.378025344978329</v>
+        <v>1.152963</v>
       </c>
       <c r="I24">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="J24">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N24">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O24">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P24">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q24">
-        <v>21.5518745051449</v>
+        <v>22.36244221440599</v>
       </c>
       <c r="R24">
-        <v>21.5518745051449</v>
+        <v>201.261979929654</v>
       </c>
       <c r="S24">
-        <v>0.0001085703029632568</v>
+        <v>0.0001010700490242796</v>
       </c>
       <c r="T24">
-        <v>0.0001085703029632568</v>
+        <v>0.0001010700490242796</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.378025344978329</v>
+        <v>0.384321</v>
       </c>
       <c r="H25">
-        <v>0.378025344978329</v>
+        <v>1.152963</v>
       </c>
       <c r="I25">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="J25">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N25">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q25">
-        <v>40.7315135582225</v>
+        <v>44.51816572122499</v>
       </c>
       <c r="R25">
-        <v>40.7315135582225</v>
+        <v>400.6634914910249</v>
       </c>
       <c r="S25">
-        <v>0.0002051901687768522</v>
+        <v>0.0002012058051967439</v>
       </c>
       <c r="T25">
-        <v>0.0002051901687768522</v>
+        <v>0.0002012058051967439</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>21.9319933500706</v>
+        <v>0.129164</v>
       </c>
       <c r="H26">
-        <v>21.9319933500706</v>
+        <v>0.387492</v>
       </c>
       <c r="I26">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="J26">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N26">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q26">
-        <v>1601.668984428524</v>
+        <v>12.244727954564</v>
       </c>
       <c r="R26">
-        <v>1601.668984428524</v>
+        <v>110.202551591076</v>
       </c>
       <c r="S26">
-        <v>0.008068610776512481</v>
+        <v>5.534168597468743E-05</v>
       </c>
       <c r="T26">
-        <v>0.008068610776512481</v>
+        <v>5.534168597468744E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>21.9319933500706</v>
+        <v>0.129164</v>
       </c>
       <c r="H27">
-        <v>21.9319933500706</v>
+        <v>0.387492</v>
       </c>
       <c r="I27">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="J27">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N27">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q27">
-        <v>3177.719211159546</v>
+        <v>18.81162096747733</v>
       </c>
       <c r="R27">
-        <v>3177.719211159546</v>
+        <v>169.304588707296</v>
       </c>
       <c r="S27">
-        <v>0.01600816380985297</v>
+        <v>8.502163740346207E-05</v>
       </c>
       <c r="T27">
-        <v>0.01600816380985297</v>
+        <v>8.502163740346209E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>21.9319933500706</v>
+        <v>0.129164</v>
       </c>
       <c r="H28">
-        <v>21.9319933500706</v>
+        <v>0.387492</v>
       </c>
       <c r="I28">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="J28">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N28">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q28">
-        <v>1491.808901082595</v>
+        <v>9.400035475189334</v>
       </c>
       <c r="R28">
-        <v>1491.808901082595</v>
+        <v>84.600319276704</v>
       </c>
       <c r="S28">
-        <v>0.007515176664338678</v>
+        <v>4.248471777806624E-05</v>
       </c>
       <c r="T28">
-        <v>0.007515176664338678</v>
+        <v>4.248471777806624E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>21.9319933500706</v>
+        <v>0.129164</v>
       </c>
       <c r="H29">
-        <v>21.9319933500706</v>
+        <v>0.387492</v>
       </c>
       <c r="I29">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="J29">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N29">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q29">
-        <v>1674.429943208113</v>
+        <v>9.866334650946667</v>
       </c>
       <c r="R29">
-        <v>1674.429943208113</v>
+        <v>88.79701185852001</v>
       </c>
       <c r="S29">
-        <v>0.008435153340441724</v>
+        <v>4.459221928000032E-05</v>
       </c>
       <c r="T29">
-        <v>0.008435153340441724</v>
+        <v>4.459221928000034E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>21.9319933500706</v>
+        <v>0.129164</v>
       </c>
       <c r="H30">
-        <v>21.9319933500706</v>
+        <v>0.387492</v>
       </c>
       <c r="I30">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="J30">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N30">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O30">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P30">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q30">
-        <v>1250.380628197009</v>
+        <v>7.515650943303999</v>
       </c>
       <c r="R30">
-        <v>1250.380628197009</v>
+        <v>67.64085848973599</v>
       </c>
       <c r="S30">
-        <v>0.006298951100069239</v>
+        <v>3.396798981104871E-05</v>
       </c>
       <c r="T30">
-        <v>0.006298951100069239</v>
+        <v>3.396798981104872E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.129164</v>
+      </c>
+      <c r="H31">
+        <v>0.387492</v>
+      </c>
+      <c r="I31">
+        <v>0.0003290302293283772</v>
+      </c>
+      <c r="J31">
+        <v>0.0003290302293283772</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N31">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O31">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P31">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q31">
+        <v>14.96182711123333</v>
+      </c>
+      <c r="R31">
+        <v>134.6564440011</v>
+      </c>
+      <c r="S31">
+        <v>6.762197908111247E-05</v>
+      </c>
+      <c r="T31">
+        <v>6.762197908111247E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>25.676422</v>
+      </c>
+      <c r="H32">
+        <v>77.02926600000001</v>
+      </c>
+      <c r="I32">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="J32">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>94.799851</v>
+      </c>
+      <c r="N32">
+        <v>284.399553</v>
+      </c>
+      <c r="O32">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="P32">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="Q32">
+        <v>2434.120979813122</v>
+      </c>
+      <c r="R32">
+        <v>21907.0888183181</v>
+      </c>
+      <c r="S32">
+        <v>0.01100133538197606</v>
+      </c>
+      <c r="T32">
+        <v>0.01100133538197606</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>25.676422</v>
+      </c>
+      <c r="H33">
+        <v>77.02926600000001</v>
+      </c>
+      <c r="I33">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="J33">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>145.6413626666667</v>
+      </c>
+      <c r="N33">
+        <v>436.924088</v>
+      </c>
+      <c r="O33">
+        <v>0.2584006873076977</v>
+      </c>
+      <c r="P33">
+        <v>0.2584006873076978</v>
+      </c>
+      <c r="Q33">
+        <v>3739.549088484378</v>
+      </c>
+      <c r="R33">
+        <v>33655.94179635941</v>
+      </c>
+      <c r="S33">
+        <v>0.0169013923469564</v>
+      </c>
+      <c r="T33">
+        <v>0.01690139234695641</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>25.676422</v>
+      </c>
+      <c r="H34">
+        <v>77.02926600000001</v>
+      </c>
+      <c r="I34">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="J34">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>72.77597066666667</v>
+      </c>
+      <c r="N34">
+        <v>218.327912</v>
+      </c>
+      <c r="O34">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="P34">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="Q34">
+        <v>1868.626534296955</v>
+      </c>
+      <c r="R34">
+        <v>16817.63880867259</v>
+      </c>
+      <c r="S34">
+        <v>0.00844550758896079</v>
+      </c>
+      <c r="T34">
+        <v>0.00844550758896079</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>25.676422</v>
+      </c>
+      <c r="H35">
+        <v>77.02926600000001</v>
+      </c>
+      <c r="I35">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="J35">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>76.38610333333334</v>
+      </c>
+      <c r="N35">
+        <v>229.15831</v>
+      </c>
+      <c r="O35">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="P35">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="Q35">
+        <v>1961.321824122274</v>
+      </c>
+      <c r="R35">
+        <v>17651.89641710046</v>
+      </c>
+      <c r="S35">
+        <v>0.008864456351226539</v>
+      </c>
+      <c r="T35">
+        <v>0.008864456351226541</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>21.9319933500706</v>
-      </c>
-      <c r="H31">
-        <v>21.9319933500706</v>
-      </c>
-      <c r="I31">
-        <v>0.05823062631563122</v>
-      </c>
-      <c r="J31">
-        <v>0.05823062631563122</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>107.748102341015</v>
-      </c>
-      <c r="N31">
-        <v>107.748102341015</v>
-      </c>
-      <c r="O31">
-        <v>0.2044383063972043</v>
-      </c>
-      <c r="P31">
-        <v>0.2044383063972043</v>
-      </c>
-      <c r="Q31">
-        <v>2363.130664025867</v>
-      </c>
-      <c r="R31">
-        <v>2363.130664025867</v>
-      </c>
-      <c r="S31">
-        <v>0.01190457062441612</v>
-      </c>
-      <c r="T31">
-        <v>0.01190457062441612</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>25.676422</v>
+      </c>
+      <c r="H36">
+        <v>77.02926600000001</v>
+      </c>
+      <c r="I36">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="J36">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>58.18688599999999</v>
+      </c>
+      <c r="N36">
+        <v>174.560658</v>
+      </c>
+      <c r="O36">
+        <v>0.10323668399826</v>
+      </c>
+      <c r="P36">
+        <v>0.1032366839982601</v>
+      </c>
+      <c r="Q36">
+        <v>1494.031039801892</v>
+      </c>
+      <c r="R36">
+        <v>13446.27935821703</v>
+      </c>
+      <c r="S36">
+        <v>0.00675247314174373</v>
+      </c>
+      <c r="T36">
+        <v>0.006752473141743731</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>25.676422</v>
+      </c>
+      <c r="H37">
+        <v>77.02926600000001</v>
+      </c>
+      <c r="I37">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="J37">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N37">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O37">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P37">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q37">
+        <v>2974.251237179617</v>
+      </c>
+      <c r="R37">
+        <v>26768.26113461655</v>
+      </c>
+      <c r="S37">
+        <v>0.0134425263336674</v>
+      </c>
+      <c r="T37">
+        <v>0.0134425263336674</v>
       </c>
     </row>
   </sheetData>
